--- a/CDF_PDF/m4_integration_40.xlsx
+++ b/CDF_PDF/m4_integration_40.xlsx
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.033949477885871e-24</v>
+        <v>3.982060153196935e-24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.098504678944736e-15</v>
+        <v>3.527537530530241e-15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.461865137771868e-11</v>
+        <v>2.636750824099869e-11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.475960433905895e-09</v>
+        <v>4.672192067195145e-09</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -434,7 +434,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.569256656718898e-07</v>
+        <v>1.454508411210919e-07</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -442,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.753949485907659e-06</v>
+        <v>1.719417523361799e-06</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -450,7 +450,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.095120054832115e-05</v>
+        <v>1.113944820357999e-05</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -458,7 +458,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.634564578895905e-05</v>
+        <v>4.827453910339316e-05</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -466,7 +466,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0001490553035343021</v>
+        <v>0.0001575518076741713</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -474,7 +474,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0003917217953860922</v>
+        <v>0.0004175438250504166</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -482,7 +482,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0008829788333069501</v>
+        <v>0.0009450236150044676</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -490,7 +490,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.001765751260124998</v>
+        <v>0.001891865893682322</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -498,7 +498,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.003209822645789917</v>
+        <v>0.003435719904234102</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -506,7 +506,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.005400477596071123</v>
+        <v>0.005766873160841277</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -514,7 +514,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.008525482699558655</v>
+        <v>0.009074027702779082</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -522,7 +522,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01276244653090717</v>
+        <v>0.01353122468112973</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -530,7 +530,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0182680302646153</v>
+        <v>0.01928735133264018</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -538,7 +538,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.02516983686929791</v>
+        <v>0.02645887678763681</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -546,7 +546,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.03356124844667514</v>
+        <v>0.03512585161400082</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -554,7 +554,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.04349907377260315</v>
+        <v>0.04533081119055601</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -562,7 +562,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.05500361674240056</v>
+        <v>0.05708002013604539</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -570,7 +570,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.06806065602386618</v>
+        <v>0.07034643467983281</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -578,7 +578,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.08262480148417128</v>
+        <v>0.08507379133002682</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.09862372984913105</v>
+        <v>0.1011813118092461</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.115962872824946</v>
+        <v>0.1185686160709306</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -602,7 +602,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1345302153406537</v>
+        <v>0.1371205380790045</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -610,7 +610,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1542009463028871</v>
+        <v>0.1567116320675394</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -618,7 +618,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1748417814187024</v>
+        <v>0.1772102351706764</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -626,7 +626,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1963148433406781</v>
+        <v>0.1984820143379116</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -634,7 +634,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.2184810373912212</v>
+        <v>0.2203929722003276</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -642,7 +642,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.2412029018405047</v>
+        <v>0.242811919985572</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -650,7 +650,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.2643469414529587</v>
+        <v>0.2656124480411901</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -658,7 +658,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.2877854734838818</v>
+        <v>0.2886744383506828</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -666,7 +666,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.3113980282804616</v>
+        <v>0.3118851707195678</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -674,7 +674,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.3350723537922767</v>
+        <v>0.3351400768556451</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -682,7 +682,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.3587050760953376</v>
+        <v>0.3583431958171978</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -690,7 +690,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.3822020677140154</v>
+        <v>0.3814073813880829</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -698,7 +698,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.4054785730830345</v>
+        <v>0.404254307717782</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -706,7 +706,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.4284591367061198</v>
+        <v>0.4268143146672745</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -714,7 +714,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.4510773750295111</v>
+        <v>0.4490261291747998</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -722,7 +722,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4732756281910349</v>
+        <v>0.4708364939034877</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -730,7 +730,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4950045229356497</v>
+        <v>0.4921997296518381</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -738,7 +738,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5162224733138118</v>
+        <v>0.5130772536147507</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -746,7 +746,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5368951414309361</v>
+        <v>0.533437071636508</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -754,7 +754,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.5569948765692053</v>
+        <v>0.5532532591170871</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -762,7 +762,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.5765001474903564</v>
+        <v>0.5725054422118039</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -770,7 +770,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5953949796543028</v>
+        <v>0.5911782883768701</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -778,7 +778,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6136684064385329</v>
+        <v>0.6092610131252481</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -786,7 +786,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6313139411898122</v>
+        <v>0.6267469080284681</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -794,7 +794,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.6483290750484071</v>
+        <v>0.64363289348959</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -802,7 +802,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.6647148039181204</v>
+        <v>0.6599190985797163</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -810,7 +810,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.6804751866745097</v>
+        <v>0.6756084692371449</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -818,7 +818,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.6956169356714896</v>
+        <v>0.6907064053391212</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -826,7 +826,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.710149039788072</v>
+        <v>0.7052204265394779</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -834,7 +834,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7240824196201299</v>
+        <v>0.719159866293024</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -842,7 +842,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7374296139378581</v>
+        <v>0.7325355931346901</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -850,7 +850,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7502044961723829</v>
+        <v>0.7453597580267909</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -858,7 +858,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.7624220194423009</v>
+        <v>0.7576455664129795</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -866,7 +866,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.7740979884633745</v>
+        <v>0.769407073506985</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -874,7 +874,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7852488565855368</v>
+        <v>0.7806590012848832</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -882,7 +882,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7958915461566327</v>
+        <v>0.7914165756304687</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -890,7 +890,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.8060432904100736</v>
+        <v>0.8016953820951265</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -898,7 +898,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.8157214951038801</v>
+        <v>0.8115112387689114</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -906,7 +906,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.8249436181932513</v>
+        <v>0.8208800848121688</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -914,7 +914,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.8337270658910928</v>
+        <v>0.8298178832619451</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -922,7 +922,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.8420891035554108</v>
+        <v>0.8383405368006338</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -930,7 +930,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.8500467799347429</v>
+        <v>0.8464638152525417</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -938,7 +938,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.8576168633993612</v>
+        <v>0.8542032936548235</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -946,7 +946,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.8648157888841135</v>
+        <v>0.8615742998305456</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -954,7 +954,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.8716596143663572</v>
+        <v>0.8685918704719849</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -962,7 +962,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.8781639857978857</v>
+        <v>0.8752707148205319</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -970,7 +970,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.8843441095018778</v>
+        <v>0.8816251851049076</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -978,7 +978,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.8902147311338843</v>
+        <v>0.8876692529712645</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -986,7 +986,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.8957901203891335</v>
+        <v>0.8934164912067243</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -994,7 +994,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.9010840607166599</v>
+        <v>0.8988800601218071</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.9061098433737567</v>
+        <v>0.9040726980169175</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9108802652219921</v>
+        <v>0.9090067152135672</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.9154076297285776</v>
+        <v>0.9136939911824088</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.9197037506943674</v>
+        <v>0.9181459743475361</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.9237799582824063</v>
+        <v>0.9223736841900498</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.9276471069689594</v>
+        <v>0.9263877153137562</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.9313155850826016</v>
+        <v>0.9301982431722852</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.9347953256365081</v>
+        <v>0.9338150311900753</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.9380958181948277</v>
+        <v>0.9372474390398019</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.941226121546231</v>
+        <v>0.940504431866131</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.9441948769866751</v>
+        <v>0.9435945902703732</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.947010322039371</v>
+        <v>0.9465261208928969</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.949680304463145</v>
+        <v>0.9493068674502242</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.9522122964210851</v>
+        <v>0.9519443221017702</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.9546134086997755</v>
+        <v>0.9544456370373613</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.956890404885777</v>
+        <v>0.9568176361911538</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.9590497154204829</v>
+        <v>0.9590668270005112</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.9610974514672709</v>
+        <v>0.9611994121399422</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.9630394185361331</v>
+        <v>0.9632213011704717</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.964881129820865</v>
+        <v>0.965138122053937</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.9666278192125642</v>
+        <v>0.9669552324897918</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.968284453960759</v>
+        <v>0.9686777310391451</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9698557469600835</v>
+        <v>0.9703104680070778</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.9713461686461287</v>
+        <v>0.9718580560598227</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.972759958489041</v>
+        <v>0.9733248805582768</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.9741011360776879</v>
+        <v>0.9747151095935719</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.9753735117908487</v>
+        <v>0.9760327037141532</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.9765806970549826</v>
+        <v>0.9772814253370522</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.9777261141907466</v>
+        <v>0.9784648478388378</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.9788130058526331</v>
+        <v>0.9795863643241465</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.9798444440679239</v>
+        <v>0.9806491960717652</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.9808233388826653</v>
+        <v>0.9816564006600064</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.9817524466235853</v>
+        <v>0.9826108797746137</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.9826343777858551</v>
+        <v>0.9835153867036951</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.9834716045573489</v>
+        <v>0.9843725335252287</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.9842664679906394</v>
+        <v>0.9851847979935505</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.9850211848343698</v>
+        <v>0.9859545301319332</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.9857378540359288</v>
+        <v>0.9866839585389212</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.9864184629275045</v>
+        <v>0.9873751964165222</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.9870648931076546</v>
+        <v>0.9880302473286768</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.9876789260305012</v>
+        <v>0.9886510106986598</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.9882622483145579</v>
+        <v>0.9892392870542107</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.9888164567830376</v>
+        <v>0.9897967830292722</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.9893430632472838</v>
+        <v>0.9903251161312288</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.9898434990447146</v>
+        <v>0.9908258192825035</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.9903191193423921</v>
+        <v>0.9913003451452933</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.9907712072170223</v>
+        <v>0.9917500702381069</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.9912009775218631</v>
+        <v>0.9921762988526222</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.9916095805506827</v>
+        <v>0.9925802667792102</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.9919981055085566</v>
+        <v>0.9929631448492805</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.9923675837989381</v>
+        <v>0.9933260423023927</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.9927189921360797</v>
+        <v>0.9936700099858589</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.9930532554915218</v>
+        <v>0.9939960433943301</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.9933712498830104</v>
+        <v>0.9943050855566238</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.9936738050138536</v>
+        <v>0.9945980297768017</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.9939617067703798</v>
+        <v>0.994875722236269</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.9942356995848197</v>
+        <v>0.9951389644634141</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.9944964886706066</v>
+        <v>0.9953885156770661</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.9947447421367612</v>
+        <v>0.995625095009802</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.9949810929877205</v>
+        <v>0.9958493836168969</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.9952061410146616</v>
+        <v>0.9960620266764721</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.995420454584083</v>
+        <v>0.9962636352861657</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.9956245723291204</v>
+        <v>0.9964547882614219</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.9958190047488042</v>
+        <v>0.996636033840277</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.9960042357202055</v>
+        <v>0.9968078912993018</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.996180723928164</v>
+        <v>0.9969708524851539</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.9963489042170572</v>
+        <v>0.9971253832659912</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.9965091888688332</v>
+        <v>0.9972719249068011</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.9966619688113171</v>
+        <v>0.9974108953725139</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.9968076147605883</v>
+        <v>0.9975426905625853</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.9969464783010261</v>
+        <v>0.9976676854805578</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.9970788929064319</v>
+        <v>0.9977862353419462</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.9972051749054546</v>
+        <v>0.9978986766236249</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.9973256243943737</v>
+        <v>0.9980053280577467</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.9974405261001301</v>
+        <v>0.9981064915730694</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.997550150196339</v>
+        <v>0.9982024531864272</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.9976547530748715</v>
+        <v>0.9982934838469456</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.997754578075452</v>
+        <v>0.9983798402354723</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.9978498561755821</v>
+        <v>0.9984617655215686</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.9979408066429803</v>
+        <v>0.9985394900802897</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.9980276376526018</v>
+        <v>0.9986132321708689</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.9981105468701933</v>
+        <v>0.9986831985793124</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.9981897220042281</v>
+        <v>0.9987495852268088</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.9982653413279657</v>
+        <v>0.9988125777457605</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.9983375741732837</v>
+        <v>0.99887235202515</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.9984065813978381</v>
+        <v>0.998929074726866</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.9984725158270236</v>
+        <v>0.9989829037745293</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.9985355226721218</v>
+        <v>0.9990339888162802</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.9985957399259495</v>
+        <v>0.9990824716629103</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.9986532987372461</v>
+        <v>0.99912848670265</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.9987083237649692</v>
+        <v>0.9991721612938569</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.9987609335136056</v>
+        <v>0.9992136161367804</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.9988112406505379</v>
+        <v>0.9992529656255196</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.9988593523064551</v>
+        <v>0.9992903181812299</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.9989053703597355</v>
+        <v>0.9993257765675815</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.9989493917056818</v>
+        <v>0.9993594381894149</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.9989915085114371</v>
+        <v>0.9993913953754933</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.9990318084573661</v>
+        <v>0.999421735646201</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.9990703749656398</v>
+        <v>0.9994505419669926</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.9991072874167252</v>
+        <v>0.999477892988355</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.9991426213544358</v>
+        <v>0.9995038632730038</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.9991764486801691</v>
+        <v>0.9995285235109971</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.9992088378369175</v>
+        <v>0.9995519407234124</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.9992398539836095</v>
+        <v>0.999574178455199</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.9992695591603044</v>
+        <v>0.999595296957786</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.9992980124447378</v>
+        <v>0.9996153533619914</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.9993252701006847</v>
+        <v>0.999634401841754</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.9993513857185826</v>
+        <v>0.9996524937691781</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.9993764103488324</v>
+        <v>0.9996696778613542</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.9994003926281719</v>
+        <v>0.9996860003193979</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.9994233788994937</v>
+        <v>0.9997015049601218</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.9994454133254606</v>
+        <v>0.9997162333407337</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.9994665379962497</v>
+        <v>0.9997302248769356</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.9994867930317421</v>
+        <v>0.9997435169547746</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.9995062166784515</v>
+        <v>0.9997561450365794</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.9995248454014761</v>
+        <v>0.9997681427612998</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.9995427139717363</v>
+        <v>0.9997795420395461</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.9995598555487505</v>
+        <v>0.9997903731436127</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.9995763017591847</v>
+        <v>0.9998006647927523</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.9995920827714012</v>
+        <v>0.9998104442339548</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.999607227366217</v>
+        <v>0.9998197373184704</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.9996217630040722</v>
+        <v>0.9998285685743027</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.9996357158887991</v>
+        <v>0.999836961274888</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.9996491110281679</v>
+        <v>0.9998449375041623</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.9996619722913821</v>
+        <v>0.9998525182182093</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.99967432246368</v>
+        <v>0.9998597233036702</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.9996861832981965</v>
+        <v>0.9998665716330885</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.999697575565226</v>
+        <v>0.9998730811173511</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.9997085190990244</v>
+        <v>0.999879268755382</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.9997190328422755</v>
+        <v>0.9998851506812324</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.9997291348883454</v>
+        <v>0.9998907422087058</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.9997388425214382</v>
+        <v>0.9998960578736499</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.9997481722547623</v>
+        <v>0.9999011114740369</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.9997571398668095</v>
+        <v>0.9999059161079514</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.9997657604358443</v>
+        <v>0.9999104842095945</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.9997740483726961</v>
+        <v>0.9999148275834104</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.9997820174519401</v>
+        <v>0.9999189574364352</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.9997896808415505</v>
+        <v>0.9999228844089592</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.9997970511311038</v>
+        <v>0.9999266186035946</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.9998041403586064</v>
+        <v>0.9999301696128315</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.9998109600360153</v>
+        <v>0.9999335465451615</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.9998175211735205</v>
+        <v>0.9999367580498443</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.99982383430265</v>
+        <v>0.9999398123403898</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.9998299094982576</v>
+        <v>0.9999427172168223</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.99983575639945</v>
+        <v>0.9999454800867913</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.9998413842295071</v>
+        <v>0.999948107985589</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.9998468018148448</v>
+        <v>0.9999506075951318</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.9998520176030697</v>
+        <v>0.9999529852619614</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.9998570396801709</v>
+        <v>0.9999552470143153</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.9998618757868909</v>
+        <v>0.9999573985783159</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.9998665333343183</v>
+        <v>0.9999594453933255</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.9998710194187396</v>
+        <v>0.9999613926265086</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.9998753408357877</v>
+        <v>0.9999632451866453</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.9998795040939215</v>
+        <v>0.9999650077372328</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.9998835154272698</v>
+        <v>0.9999666847089145</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.9998873808078712</v>
+        <v>0.9999682803112685</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.9998911059573391</v>
+        <v>0.9999697985439924</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.9998946963579805</v>
+        <v>0.9999712432075136</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.9998981572633951</v>
+        <v>0.9999726179130558</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.9999014937085813</v>
+        <v>0.999973926092189</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.9999047105195701</v>
+        <v>0.9999751710058922</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.9999078123226142</v>
+        <v>0.9999763557531507</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.9999108035529499</v>
+        <v>0.9999774832791154</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.9999136884631558</v>
+        <v>0.9999785563828446</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.9999164711311244</v>
+        <v>0.9999795777246507</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.9999191554676693</v>
+        <v>0.9999805498330727</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.9999217452237821</v>
+        <v>0.9999814751114929</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.9999242439975571</v>
+        <v>0.9999823558444171</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.9999266552408008</v>
+        <v>0.9999831942034347</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.9999289822653394</v>
+        <v>0.9999839922528765</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.99993122824904</v>
+        <v>0.9999847519551842</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.9999333962415587</v>
+        <v>0.9999854751760083</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.9999354891698289</v>
+        <v>0.9999861636890465</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.9999375098433011</v>
+        <v>0.9999868191806373</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.999939460958948</v>
+        <v>0.9999874432541208</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.9999413451060436</v>
+        <v>0.9999880374339792</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.9999431647707288</v>
+        <v>0.9999886031697671</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.9999449223403721</v>
+        <v>0.9999891418398438</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.999946620107737</v>
+        <v>0.9999896547549167</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.9999482602749624</v>
+        <v>0.9999901431614068</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.9999498449573673</v>
+        <v>0.9999906082446428</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.9999513761870864</v>
+        <v>0.9999910511318963</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.9999528559165455</v>
+        <v>0.9999914728952628</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.9999542860217829</v>
+        <v>0.9999918745543976</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.9999556683056254</v>
+        <v>0.9999922570791158</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.9999570045007243</v>
+        <v>0.9999926213918594</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.9999582962724589</v>
+        <v>0.9999929683700427</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.9999595452217127</v>
+        <v>0.9999932988482785</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.9999607528875289</v>
+        <v>0.9999936136204934</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.9999619207496506</v>
+        <v>0.9999939134419374</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.9999630502309499</v>
+        <v>0.9999941990310922</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.9999641426997526</v>
+        <v>0.9999944710714843</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.9999651994720629</v>
+        <v>0.9999947302134081</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2546,7 +2546,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.9999662218136905</v>
+        <v>0.9999949770755621</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.9999672109422888</v>
+        <v>0.9999952122466037</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.9999681680293029</v>
+        <v>0.9999954362866269</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.9999690942018364</v>
+        <v>0.9999956497285658</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.9999699905444378</v>
+        <v>0.9999958530795284</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.99997085810081</v>
+        <v>0.9999960468220642</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.9999716978754485</v>
+        <v>0.9999962314153686</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.9999725108352092</v>
+        <v>0.9999964072964274</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.9999732979108104</v>
+        <v>0.9999965748811043</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.9999740599982706</v>
+        <v>0.9999967345651753</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.9999747979602873</v>
+        <v>0.9999968867253108</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.9999755126275559</v>
+        <v>0.9999970317200094</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.9999762048000349</v>
+        <v>0.9999971698904856</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.9999768752481575</v>
+        <v>0.9999973015615133</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.9999775247139927</v>
+        <v>0.9999974270422282</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.9999781539123582</v>
+        <v>0.9999975466268896</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.9999787635318869</v>
+        <v>0.9999976605956054</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.9999793542360492</v>
+        <v>0.9999977692150209</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.9999799266641337</v>
+        <v>0.999997872738974</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.9999804814321863</v>
+        <v>0.9999979714091175</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.9999810191339114</v>
+        <v>0.9999980654555115</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.999981540341536</v>
+        <v>0.9999981550971861</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.9999820456066384</v>
+        <v>0.9999982405426766</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.9999825354609431</v>
+        <v>0.9999983219905325</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.9999830104170826</v>
+        <v>0.9999983996298015</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.9999834709693296</v>
+        <v>0.9999984736404895</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.9999839175942979</v>
+        <v>0.9999985441939985</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.9999843507516162</v>
+        <v>0.9999986114535422</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.9999847708845737</v>
+        <v>0.9999986755745425</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.9999851784207404</v>
+        <v>0.9999987367050055</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.9999855737725621</v>
+        <v>0.9999987949858795</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.9999859573379316</v>
+        <v>0.9999988505513958</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.9999863295007368</v>
+        <v>0.9999989035293921</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.9999866906313875</v>
+        <v>0.9999989540416212</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.9999870410873202</v>
+        <v>0.9999990022040435</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.9999873812134842</v>
+        <v>0.9999990481271059</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.999987711342807</v>
+        <v>0.9999990919160073</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.9999880317966422</v>
+        <v>0.9999991336709504</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2850,7 +2850,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.9999883428851996</v>
+        <v>0.999999173487382</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.9999886449079577</v>
+        <v>0.9999992114562212</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2866,7 +2866,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.9999889381540609</v>
+        <v>0.9999992476640767</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.9999892229027004</v>
+        <v>0.9999992821934534</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.9999894994234807</v>
+        <v>0.9999993151229492</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2890,7 +2890,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.9999897679767713</v>
+        <v>0.999999346527442</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2898,7 +2898,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.9999900288140451</v>
+        <v>0.999999376478268</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2906,7 +2906,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.9999902821782034</v>
+        <v>0.9999994050433906</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.9999905283038885</v>
+        <v>0.9999994322875622</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.9999907674177839</v>
+        <v>0.9999994582724772</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.9999909997389034</v>
+        <v>0.9999994830569182</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.9999912254788681</v>
+        <v>0.9999995066968952</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.9999914448421743</v>
+        <v>0.9999995292457773</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.9999916580264493</v>
+        <v>0.999999550754419</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2962,7 +2962,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.9999918652226991</v>
+        <v>0.99999957127128</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2970,7 +2970,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.9999920666155453</v>
+        <v>0.9999995908425389</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2978,7 +2978,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.9999922623834538</v>
+        <v>0.9999996095122018</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2986,7 +2986,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.9999924526989546</v>
+        <v>0.9999996273222062</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2994,7 +2994,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.9999926377288531</v>
+        <v>0.9999996443125183</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3002,7 +3002,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.9999928176344332</v>
+        <v>0.9999996605212278</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.9999929925716537</v>
+        <v>0.9999996759846359</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3018,7 +3018,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.9999931626913363</v>
+        <v>0.9999996907373409</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.9999933281393467</v>
+        <v>0.9999997048123186</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.9999934890567692</v>
+        <v>0.9999997182409994</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.9999936455800748</v>
+        <v>0.9999997310533414</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3050,7 +3050,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.9999937978412825</v>
+        <v>0.9999997432778999</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3058,7 +3058,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.9999939459681154</v>
+        <v>0.9999997549418942</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3066,7 +3066,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.9999940900841503</v>
+        <v>0.9999997660712705</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3074,7 +3074,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.9999942303089618</v>
+        <v>0.9999997766907622</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3082,7 +3082,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.9999943667582618</v>
+        <v>0.999999786823947</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3090,7 +3090,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.9999944995440326</v>
+        <v>0.9999997964933015</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3098,7 +3098,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.9999946287746565</v>
+        <v>0.9999998057202534</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3106,7 +3106,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.9999947545550394</v>
+        <v>0.9999998145252307</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3114,7 +3114,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.9999948769867306</v>
+        <v>0.9999998229277089</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.9999949961680382</v>
+        <v>0.9999998309462562</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.9999951121941397</v>
+        <v>0.9999998385985754</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3138,7 +3138,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.9999952251571893</v>
+        <v>0.9999998459015454</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3146,7 +3146,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.9999953351464209</v>
+        <v>0.9999998528712597</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3154,7 +3154,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.9999954422482472</v>
+        <v>0.9999998595230631</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3162,7 +3162,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.9999955465463557</v>
+        <v>0.9999998658715874</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3170,7 +3170,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.9999956481218009</v>
+        <v>0.9999998719307842</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3178,7 +3178,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.999995747053093</v>
+        <v>0.9999998777139574</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3186,7 +3186,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.9999958434162841</v>
+        <v>0.9999998832337933</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3194,7 +3194,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.9999959372850505</v>
+        <v>0.9999998885023896</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.9999960287307726</v>
+        <v>0.999999893531283</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3210,7 +3210,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.9999961178226117</v>
+        <v>0.9999998983314756</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3218,7 +3218,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.9999962046275838</v>
+        <v>0.9999999029134595</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3226,7 +3226,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.9999962892106316</v>
+        <v>0.9999999072872412</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3234,7 +3234,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.9999963716346931</v>
+        <v>0.999999911462364</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.9999964519607686</v>
+        <v>0.9999999154479298</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.9999965302479839</v>
+        <v>0.9999999192526193</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.9999966065536527</v>
+        <v>0.9999999228847125</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3266,7 +3266,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.9999966809333369</v>
+        <v>0.9999999263521065</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3274,7 +3274,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.9999967534409032</v>
+        <v>0.999999929662334</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3282,7 +3282,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.9999968241285793</v>
+        <v>0.9999999328225798</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3290,7 +3290,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.9999968930470071</v>
+        <v>0.9999999358396975</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3298,7 +3298,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.9999969602452951</v>
+        <v>0.9999999387202245</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3306,7 +3306,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.9999970257710676</v>
+        <v>0.9999999414703972</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3314,7 +3314,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.9999970896705138</v>
+        <v>0.9999999440961643</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3322,7 +3322,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.9999971519884335</v>
+        <v>0.9999999466032009</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3330,7 +3330,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.9999972127682826</v>
+        <v>0.9999999489969208</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3338,7 +3338,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.9999972720522162</v>
+        <v>0.9999999512824886</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3346,7 +3346,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.999997329881131</v>
+        <v>0.9999999534648318</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3354,7 +3354,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.999997386294705</v>
+        <v>0.9999999555486511</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3362,7 +3362,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.9999974413314372</v>
+        <v>0.9999999575384313</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3370,7 +3370,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.999997495028685</v>
+        <v>0.9999999594384513</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3378,7 +3378,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.9999975474227006</v>
+        <v>0.9999999612527936</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3386,7 +3386,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.9999975985486668</v>
+        <v>0.9999999629853533</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3394,7 +3394,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.9999976484407301</v>
+        <v>0.9999999646398471</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.9999976971320345</v>
+        <v>0.9999999662198211</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.9999977446547521</v>
+        <v>0.9999999677286592</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.9999977910401151</v>
+        <v>0.9999999691695899</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.9999978363184443</v>
+        <v>0.9999999705456942</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.9999978805191784</v>
+        <v>0.9999999718599122</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.9999979236709012</v>
+        <v>0.9999999731150493</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.9999979658013691</v>
+        <v>0.9999999743137827</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.999998006937536</v>
+        <v>0.9999999754586674</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.999998047105579</v>
+        <v>0.9999999765521415</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.9999980863309224</v>
+        <v>0.9999999775965318</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.9999981246382604</v>
+        <v>0.999999978594059</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.9999981620515811</v>
+        <v>0.9999999795468425</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.9999981985941867</v>
+        <v>0.999999980456905</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.9999982342887159</v>
+        <v>0.9999999813261768</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.9999982691571637</v>
+        <v>0.9999999821565008</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.9999983032209011</v>
+        <v>0.9999999829496353</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3530,7 +3530,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.9999983365006945</v>
+        <v>0.9999999837072591</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3538,7 +3538,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.999998369016724</v>
+        <v>0.9999999844309742</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3546,7 +3546,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.9999984007886012</v>
+        <v>0.9999999851223099</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3554,7 +3554,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.9999984318353868</v>
+        <v>0.9999999857827262</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3562,7 +3562,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.999998462175607</v>
+        <v>0.9999999864136163</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3570,7 +3570,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.9999984918272696</v>
+        <v>0.9999999870163104</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3578,7 +3578,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.9999985208078802</v>
+        <v>0.9999999875920783</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3586,7 +3586,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.9999985491344567</v>
+        <v>0.9999999881421319</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3594,7 +3594,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.9999985768235444</v>
+        <v>0.9999999886676283</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.9999986038912301</v>
+        <v>0.9999999891696723</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3610,7 +3610,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.9999986303531556</v>
+        <v>0.9999999896493181</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3618,7 +3618,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.9999986562245314</v>
+        <v>0.9999999901075727</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3626,7 +3626,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.9999986815201493</v>
+        <v>0.999999990545397</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3634,7 +3634,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.9999987062543946</v>
+        <v>0.9999999909637087</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3642,7 +3642,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.9999987304412589</v>
+        <v>0.9999999913633839</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3650,7 +3650,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.9999987540943511</v>
+        <v>0.999999991745259</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3658,7 +3658,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.9999987772269091</v>
+        <v>0.9999999921101325</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3666,7 +3666,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.9999987998518104</v>
+        <v>0.9999999924587669</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3674,7 +3674,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.9999988219815831</v>
+        <v>0.9999999927918903</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3682,7 +3682,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.9999988436284157</v>
+        <v>0.9999999931101977</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3690,7 +3690,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.9999988648041677</v>
+        <v>0.999999993414353</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.9999988855203784</v>
+        <v>0.9999999937049897</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.9999989057882772</v>
+        <v>0.9999999939827132</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.9999989256187917</v>
+        <v>0.9999999942481014</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.9999989450225569</v>
+        <v>0.999999994501706</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.9999989640099239</v>
+        <v>0.9999999947440539</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3738,7 +3738,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.9999989825909679</v>
+        <v>0.9999999949756484</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3746,7 +3746,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.9999990007754957</v>
+        <v>0.9999999951969699</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3754,7 +3754,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.9999990185730544</v>
+        <v>0.9999999954084775</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3762,7 +3762,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.999999035992938</v>
+        <v>0.9999999956106094</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3770,7 +3770,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.9999990530441952</v>
+        <v>0.999999995803784</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3778,7 +3778,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.999999069735636</v>
+        <v>0.9999999959884011</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3786,7 +3786,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.999999086075839</v>
+        <v>0.9999999961648424</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3794,7 +3794,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.9999991020731576</v>
+        <v>0.9999999963334725</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3802,7 +3802,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.9999991177357264</v>
+        <v>0.9999999964946397</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3810,7 +3810,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.9999991330714678</v>
+        <v>0.9999999966486764</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3818,7 +3818,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.9999991480880978</v>
+        <v>0.9999999967959005</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3826,7 +3826,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.9999991627931314</v>
+        <v>0.999999996936615</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3834,7 +3834,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.999999177193889</v>
+        <v>0.99999999707111</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3842,7 +3842,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.9999991912975014</v>
+        <v>0.9999999971996621</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.9999992051109153</v>
+        <v>0.9999999973225359</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.9999992186408985</v>
+        <v>0.9999999974399837</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.9999992318940446</v>
+        <v>0.9999999975522468</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.9999992448767783</v>
+        <v>0.9999999976595556</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.9999992575953597</v>
+        <v>0.9999999977621303</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.9999992700558892</v>
+        <v>0.9999999978601811</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.9999992822643117</v>
+        <v>0.9999999979539089</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.999999294226421</v>
+        <v>0.9999999980435055</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.999999305947864</v>
+        <v>0.9999999981291542</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.9999993174341446</v>
+        <v>0.9999999982110301</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.9999993286906278</v>
+        <v>0.9999999982893005</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.9999993397225434</v>
+        <v>0.9999999983641253</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.9999993505349899</v>
+        <v>0.9999999984356571</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.9999993611329376</v>
+        <v>0.9999999985040418</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.9999993715212329</v>
+        <v>0.9999999985694187</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.9999993817046006</v>
+        <v>0.999999998631921</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.9999993916876483</v>
+        <v>0.9999999986916759</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.9999994014748689</v>
+        <v>0.999999998748805</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.9999994110706437</v>
+        <v>0.9999999988034243</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.9999994204792459</v>
+        <v>0.9999999988556448</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.999999429704843</v>
+        <v>0.9999999989055727</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.9999994387514998</v>
+        <v>0.9999999989533092</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.9999994476231813</v>
+        <v>0.999999998998951</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.9999994563237551</v>
+        <v>0.9999999990425906</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.9999994648569943</v>
+        <v>0.9999999990843166</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.9999994732265799</v>
+        <v>0.9999999991242132</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.999999481436103</v>
+        <v>0.9999999991623613</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.9999994894890675</v>
+        <v>0.9999999991988378</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.9999994973888925</v>
+        <v>0.9999999992337165</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.9999995051389141</v>
+        <v>0.999999999267068</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.999999512742388</v>
+        <v>0.9999999992989592</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.9999995202024913</v>
+        <v>0.9999999993294548</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>0.9999995275223249</v>
+        <v>0.9999999993586161</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.9999995347049152</v>
+        <v>0.9999999993865017</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>0.9999995417532161</v>
+        <v>0.9999999994131681</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.9999995486701112</v>
+        <v>0.9999999994386687</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.999999555458415</v>
+        <v>0.9999999994630547</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.9999995621208755</v>
+        <v>0.9999999994863753</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.9999995686601751</v>
+        <v>0.9999999995086772</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.9999995750789331</v>
+        <v>0.9999999995300053</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.9999995813797067</v>
+        <v>0.9999999995504022</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.9999995875649927</v>
+        <v>0.9999999995699089</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.9999995936372296</v>
+        <v>0.9999999995885646</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.9999995995987981</v>
+        <v>0.9999999996064064</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.9999996054520237</v>
+        <v>0.9999999996234702</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.9999996111991774</v>
+        <v>0.99999999963979</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.999999616842477</v>
+        <v>0.9999999996553985</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.999999622384089</v>
+        <v>0.9999999996703269</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.9999996278261297</v>
+        <v>0.9999999996846051</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.9999996331706661</v>
+        <v>0.9999999996982614</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.9999996384197176</v>
+        <v>0.9999999997113231</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.9999996435752571</v>
+        <v>0.9999999997238164</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>0.9999996486392118</v>
+        <v>0.9999999997357659</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>0.999999653613465</v>
+        <v>0.9999999997471957</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.9999996584998567</v>
+        <v>0.9999999997581283</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>0.999999663300185</v>
+        <v>0.9999999997685854</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.9999996680162067</v>
+        <v>0.9999999997785881</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>0.9999996726496388</v>
+        <v>0.999999999788156</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.9999996772021595</v>
+        <v>0.9999999997973082</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.9999996816754086</v>
+        <v>0.9999999998060629</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.9999996860709891</v>
+        <v>0.9999999998144374</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.9999996903904677</v>
+        <v>0.9999999998224484</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.9999996946353759</v>
+        <v>0.9999999998301117</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.9999996988072106</v>
+        <v>0.9999999998374425</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.9999997029074356</v>
+        <v>0.9999999998444552</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0.9999997069374815</v>
+        <v>0.9999999998511638</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.9999997108987473</v>
+        <v>0.9999999998575816</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0.9999997147926005</v>
+        <v>0.9999999998637211</v>
       </c>
     </row>
   </sheetData>
@@ -4411,16 +4411,13 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.152042465001475e-22</v>
+        <v>1.415755475486252e-22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4428,7 +4425,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.262993832184723e-14</v>
+        <v>4.336778094794551e-14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4436,7 +4433,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.214721182624637e-10</v>
+        <v>1.719624777698043e-10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4444,7 +4441,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.203947086606558e-08</v>
+        <v>1.926528016781675e-08</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4452,7 +4449,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.399297633038929e-07</v>
+        <v>4.176651559150597e-07</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4460,7 +4457,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.649856693255443e-06</v>
+        <v>3.655942330052951e-06</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4468,7 +4465,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.766669178289336e-05</v>
+        <v>1.829909975388208e-05</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4476,7 +4473,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.98165381430995e-05</v>
+        <v>6.320569931979855e-05</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4484,7 +4481,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0001576319079985383</v>
+        <v>0.0001683735046419473</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4492,7 +4489,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.00034583733251739</v>
+        <v>0.0003711280268461731</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4500,7 +4497,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0006606273066920641</v>
+        <v>0.0007093069935875335</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4508,7 +4505,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.00113341118396796</v>
+        <v>0.001214212982204446</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4516,7 +4513,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.00178583587185325</v>
+        <v>0.001905453708693648</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4524,7 +4521,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.002626984216005494</v>
+        <v>0.002788526036227641</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4532,7 +4529,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.00365281065382002</v>
+        <v>0.003854967700794467</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4540,7 +4537,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.00484736426789115</v>
+        <v>0.005084363098590298</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4548,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.006185157076228633</v>
+        <v>0.00644736843640361</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4556,7 +4553,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.007634058823138559</v>
+        <v>0.007909041782711582</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4564,7 +4561,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.009158230542248385</v>
+        <v>0.009431975194539201</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4572,7 +4569,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01072076997074751</v>
+        <v>0.01097893731339515</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4580,7 +4577,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0122858884903725</v>
+        <v>0.01251490369106674</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4588,7 +4585,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0138205530568295</v>
+        <v>0.01400846829173438</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4596,7 +4593,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.01529560443188046</v>
+        <v>0.01543269868304875</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4604,7 +4601,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.01668640954690545</v>
+        <v>0.01676553066886502</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4612,7 +4609,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.01797312835530751</v>
+        <v>0.01798980713836674</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4620,7 +4617,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.01914068147202563</v>
+        <v>0.01909306032875196</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4628,7 +4625,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.020178500481761</v>
+        <v>0.02006712356988712</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4636,7 +4633,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.02108013273523786</v>
+        <v>0.02090764260105355</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4644,7 +4641,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.02184276002312658</v>
+        <v>0.02161354058287162</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4652,7 +4649,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0224666778241428</v>
+        <v>0.02218647651951645</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4660,7 +4657,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.02295477009208615</v>
+        <v>0.02263032463844638</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4668,7 +4665,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.02331200438709905</v>
+        <v>0.02295069249634529</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4676,7 +4673,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.02354496377879866</v>
+        <v>0.02315448804437688</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4684,7 +4681,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.02366142531924368</v>
+        <v>0.02324954030336614</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4692,7 +4689,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.02366998983490586</v>
+        <v>0.02324427433315811</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4700,7 +4697,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.02357976409193616</v>
+        <v>0.02314743849911815</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4708,7 +4705,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.02340009380671143</v>
+        <v>0.02296788034550846</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4716,7 +4713,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.02314034427468659</v>
+        <v>0.02271436642844116</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4724,7 +4721,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.02280972437126134</v>
+        <v>0.02239544103507258</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4732,7 +4729,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.02241714916597209</v>
+        <v>0.02201931865892326</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4740,7 +4737,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.02197113624434208</v>
+        <v>0.02159380528953173</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4748,7 +4745,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.02147973093770316</v>
+        <v>0.02112624391530338</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4756,7 +4753,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.02095045593309339</v>
+        <v>0.02062348006372023</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4764,7 +4761,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.02039028110715389</v>
+        <v>0.020091843665153</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4772,7 +4769,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.01980560985140932</v>
+        <v>0.01953714399255057</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4780,7 +4777,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.0192022785968885</v>
+        <v>0.01896467487774668</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4788,7 +4785,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.01858556667996889</v>
+        <v>0.01837922782292864</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4796,7 +4793,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0179602141030777</v>
+        <v>0.01778511100565918</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4804,7 +4801,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.01733044512400053</v>
+        <v>0.01718617251469804</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4812,7 +4809,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.01669999595109146</v>
+        <v>0.01658582645163142</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4820,7 +4817,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.01607214512681235</v>
+        <v>0.01598708079137977</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4828,7 +4825,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.01544974544910806</v>
+        <v>0.01539256611596359</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4836,7 +4833,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.01483525651092116</v>
+        <v>0.0148045645236269</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4844,7 +4841,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.01423077713528426</v>
+        <v>0.01422503817315743</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4852,7 +4849,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.01363807714999757</v>
+        <v>0.01365565705460653</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4860,7 +4857,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.01305862808517787</v>
+        <v>0.01309782568594605</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4868,7 +4865,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.01249363249221688</v>
+        <v>0.01255270852376937</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4876,7 +4873,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.01194405167703154</v>
+        <v>0.01202125394778105</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4884,7 +4881,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.01141063171684823</v>
+        <v>0.01150421673616315</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4892,7 +4889,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.01089392769077927</v>
+        <v>0.01100217899423062</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4900,7 +4897,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.01039432610251029</v>
+        <v>0.01051556953407412</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4908,7 +4905,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.009912065510623959</v>
+        <v>0.01004468172990488</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4916,7 +4913,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.009447255410276445</v>
+        <v>0.009589689893981851</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4924,7 +4921,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.008999893430713276</v>
+        <v>0.009150664232648965</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4932,7 +4929,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.008569880927823757</v>
+        <v>0.008727584452135242</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4940,7 +4937,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.008157037060754728</v>
+        <v>0.008320352090306935</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4948,7 +4945,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.007761111447510385</v>
+        <v>0.007928801654248195</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4956,7 +4953,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.007381795497287228</v>
+        <v>0.007552710644996248</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4964,7 +4961,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.007018732517708446</v>
+        <v>0.007191808550473875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4972,7 +4969,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.006671526693701905</v>
+        <v>0.006845784886086559</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4980,7 +4977,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.006339751031976427</v>
+        <v>0.006514296359899502</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4988,7 +4985,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.006022954361266563</v>
+        <v>0.006196973236072868</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4996,7 +4993,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.005720667474045206</v>
+        <v>0.005893424966527297</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5004,7 +5001,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.005432408490490105</v>
+        <v>0.005603245156805639</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5012,7 +5009,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.005157687520330548</v>
+        <v>0.005326015927947093</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5020,7 +5017,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.004896010692937622</v>
+        <v>0.005061311731978027</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5028,7 +5025,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.004646883620784852</v>
+        <v>0.004808702674458185</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5036,7 +5033,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.004409814356269542</v>
+        <v>0.004567757393450293</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5044,7 +5041,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.00418431589692383</v>
+        <v>0.004338045540340838</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5052,7 +5049,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.003969908289300213</v>
+        <v>0.004119139904188654</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5060,7 +5057,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.003766120377317518</v>
+        <v>0.003910618217710838</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5068,7 +5065,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.003572491236626073</v>
+        <v>0.003712064679659143</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5076,7 +5073,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.003388571332595592</v>
+        <v>0.003523071225194661</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5084,7 +5081,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.003213923435857347</v>
+        <v>0.003343238572947398</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -5092,7 +5089,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.003048123325933568</v>
+        <v>0.003172177074720811</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -5100,7 +5097,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.002890760310359237</v>
+        <v>0.003009507391298487</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -5108,7 +5105,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.002741437583830522</v>
+        <v>0.00285486101549614</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5116,7 +5113,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.002599772449291514</v>
+        <v>0.002707880661479619</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -5124,7 +5121,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.002465396420480832</v>
+        <v>0.00256822053742632</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5132,7 +5129,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.002337955223285773</v>
+        <v>0.002435546516834347</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5140,7 +5137,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.002217108711287338</v>
+        <v>0.002309536222166244</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -5148,7 +5145,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.002102530709096862</v>
+        <v>0.002189879033046294</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5156,7 +5153,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.001993908795484695</v>
+        <v>0.002076276029894165</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5164,7 +5161,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.001890944036856047</v>
+        <v>0.001968439882673832</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5172,7 +5169,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.00179335068033565</v>
+        <v>0.001866094693344082</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -5180,7 +5177,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.001700855814561369</v>
+        <v>0.001768975799610917</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -5188,7 +5185,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.001613199005250189</v>
+        <v>0.001676829546698328</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5196,7 +5193,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.001530131911674035</v>
+        <v>0.001589413033052436</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5204,7 +5201,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.001451417889358671</v>
+        <v>0.001506493835180455</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5212,7 +5209,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.001376831583586381</v>
+        <v>0.001427849716182047</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -5220,7 +5217,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.001306158517633137</v>
+        <v>0.001353268321955089</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5228,7 +5225,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.001239194679095594</v>
+        <v>0.001282546868545508</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5236,7 +5233,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.001175746107155352</v>
+        <v>0.001215491823650077</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5244,7 +5241,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.001115628483179465</v>
+        <v>0.001151918584872667</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5252,7 +5249,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.001058666726662456</v>
+        <v>0.001091651156971488</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5260,7 +5257,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.001004694598168975</v>
+        <v>0.001034521830010268</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -5268,7 +5265,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.0009535543106338293</v>
+        <v>0.0009803708600412604</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5276,7 +5273,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0009050961501113407</v>
+        <v>0.0009290461536924738</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -5284,7 +5281,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.0008591781068366324</v>
+        <v>0.0008804029578095532</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5292,7 +5289,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0008156655172609395</v>
+        <v>0.0008343035551035156</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -5300,7 +5297,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.0007744307175510329</v>
+        <v>0.0007906169665828112</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -5308,7 +5305,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0007353527088937865</v>
+        <v>0.000749218661395227</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5316,7 +5313,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0006983168348192837</v>
+        <v>0.0007099902745716001</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -5324,7 +5321,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.0006632144706469497</v>
+        <v>0.0006728193330477813</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -5332,7 +5329,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0006299427250668412</v>
+        <v>0.0006375989902381104</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5340,7 +5337,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0005984041537898715</v>
+        <v>0.0006042277693476944</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -5348,7 +5345,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0005685064851358064</v>
+        <v>0.0005726093155336268</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5356,7 +5353,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.0005401623573733982</v>
+        <v>0.0005426521569604166</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -5364,7 +5361,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.000513289067582745</v>
+        <v>0.0005142694747393288</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -5372,7 +5369,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.0004878083317738415</v>
+        <v>0.000487378881693064</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -5380,7 +5377,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.0004636460559668987</v>
+        <v>0.0004619022098479834</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -5388,7 +5385,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0004407321179175661</v>
+        <v>0.0004377653065220221</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5396,7 +5393,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.0004190001591537425</v>
+        <v>0.0004148978388483763</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5404,7 +5401,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.0003983873869786114</v>
+        <v>0.000393233106552711</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -5412,7 +5409,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.0003788343860867819</v>
+        <v>0.0003727078627827597</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5420,7 +5417,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.0003602849394360398</v>
+        <v>0.0003532621427749363</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -5428,7 +5425,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.0003426858580158871</v>
+        <v>0.0003348391001311685</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5436,7 +5433,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.0003259868191551286</v>
+        <v>0.0003173848504709345</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -5444,7 +5441,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.0003101402130140224</v>
+        <v>0.0003008483222180459</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -5452,7 +5449,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.0002951009969114218</v>
+        <v>0.0002851811142776586</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -5460,7 +5457,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.0002808265571437812</v>
+        <v>0.0002703373603577878</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -5468,7 +5465,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.0002672765779604792</v>
+        <v>0.0002562735996894551</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -5476,7 +5473,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.0002544129173682838</v>
+        <v>0.0002429486539008497</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -5484,7 +5481,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.0002421994894471463</v>
+        <v>0.0002303235098033247</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -5492,7 +5489,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.0002306021528691953</v>
+        <v>0.0002183612078508761</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -5500,7 +5497,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.0002195886053229408</v>
+        <v>0.000207026736038571</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -5508,7 +5505,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.0002091282835552483</v>
+        <v>0.0001962869290107005</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -5516,7 +5513,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.0001991922687541267</v>
+        <v>0.0001861103721545862</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5524,7 +5521,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.0001897531970060912</v>
+        <v>0.0001764673104623266</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -5532,7 +5529,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.0001807851745725492</v>
+        <v>0.0001673295619484005</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -5540,7 +5537,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.0001722636977401555</v>
+        <v>0.0001586704354181717</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -5548,7 +5545,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.0001641655770106016</v>
+        <v>0.0001504646523884069</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -5556,7 +5553,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.000156468865405504</v>
+        <v>0.00014268827296811</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5564,7 +5561,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.0001491527906721648</v>
+        <v>0.0001353186255145826</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5572,7 +5569,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.0001421976911856995</v>
+        <v>0.0001283342398864004</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5580,7 +5577,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.000135584955352645</v>
+        <v>0.0001217147841220388</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5588,7 +5585,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.0001292969643303066</v>
+        <v>0.0001154410043792528</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5596,7 +5593,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.0001233170378851308</v>
+        <v>0.0001094946679772847</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5604,7 +5601,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.0001176293832219542</v>
+        <v>0.0001038585093902771</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5612,7 +5609,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.000112219046624324</v>
+        <v>9.851617904674122e-05</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5620,7 +5617,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.0001070718677540716</v>
+        <v>9.345219479613727e-05</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5628,7 +5625,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.0001021744364660073</v>
+        <v>8.865189590977096e-05</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5636,7 +5633,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>9.751405200093908e-05</v>
+        <v>8.410139948895625e-05</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5644,7 +5641,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>9.307868442728266e-05</v>
+        <v>7.978755915927616e-05</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5652,7 +5649,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>8.885693820828244e-05</v>
+        <v>7.569792593523623e-05</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5660,7 +5657,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>8.483801777825084e-05</v>
+        <v>7.182071114496305e-05</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5668,7 +5665,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>8.101169501743424e-05</v>
+        <v>6.814475130973836e-05</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5676,7 +5673,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7.736827852091515e-05</v>
+        <v>6.465947487818469e-05</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5684,7 +5681,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7.389858456258134e-05</v>
+        <v>6.135487071966668e-05</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5692,7 +5689,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7.059390966046891e-05</v>
+        <v>5.822145828607091e-05</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5700,7 +5697,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6.744600465484737e-05</v>
+        <v>5.525025935551481e-05</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5708,7 +5705,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6.444705021520954e-05</v>
+        <v>5.243277127583416e-05</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5716,7 +5713,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6.158963369689975e-05</v>
+        <v>4.976094162964692e-05</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5724,7 +5721,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5.88667272724016e-05</v>
+        <v>4.722714424676839e-05</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5732,7 +5729,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5.627166726646156e-05</v>
+        <v>4.482415649339653e-05</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5740,7 +5737,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5.379813462807236e-05</v>
+        <v>4.254513777101396e-05</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5748,7 +5745,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5.144013647605227e-05</v>
+        <v>4.038360916144459e-05</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5756,7 +5753,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>4.919198865844726e-05</v>
+        <v>3.833343415755846e-05</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5764,7 +5761,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>4.704829926928373e-05</v>
+        <v>3.638880042237347e-05</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5772,7 +5769,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>4.500395306934619e-05</v>
+        <v>3.454420252210262e-05</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5780,7 +5777,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>4.305409676060537e-05</v>
+        <v>3.279442558156044e-05</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5788,7 +5785,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>4.119412506674166e-05</v>
+        <v>3.113452981300567e-05</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5796,7 +5793,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>3.941966757485296e-05</v>
+        <v>2.955983587197747e-05</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5804,7 +5801,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>3.772657629593896e-05</v>
+        <v>2.806591099615674e-05</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5812,7 +5809,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>3.611091390415319e-05</v>
+        <v>2.664855588553627e-05</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5820,7 +5817,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>3.456894261701173e-05</v>
+        <v>2.530379228437063e-05</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -5828,7 +5825,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>3.309711368091193e-05</v>
+        <v>2.402785122746452e-05</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -5836,7 +5833,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>3.169205742828001e-05</v>
+        <v>2.281716191529817e-05</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -5844,7 +5841,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>3.035057387457573e-05</v>
+        <v>2.166834118437865e-05</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -5852,7 +5849,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>2.906962382516137e-05</v>
+        <v>2.057818354096405e-05</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -5860,7 +5857,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>2.784632046372803e-05</v>
+        <v>1.954365172802002e-05</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -5868,7 +5865,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>2.667792139555916e-05</v>
+        <v>1.856186779681126e-05</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -5876,7 +5873,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>2.556182112042716e-05</v>
+        <v>1.763010465611196e-05</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -5884,7 +5881,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>2.449554391131857e-05</v>
+        <v>1.674577807340661e-05</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -5892,7 +5889,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>2.347673707653444e-05</v>
+        <v>1.59064391038399e-05</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -5900,7 +5897,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>2.250316458397098e-05</v>
+        <v>1.510976692396385e-05</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -5908,7 +5905,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>2.157270102757947e-05</v>
+        <v>1.435356204854297e-05</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -5916,7 +5913,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>2.068332591712493e-05</v>
+        <v>1.363573990986477e-05</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -5924,7 +5921,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.983311827342538e-05</v>
+        <v>1.295432478007569e-05</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -5932,7 +5929,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.902025151225961e-05</v>
+        <v>1.230744401812123e-05</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -5940,7 +5937,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.824298860107025e-05</v>
+        <v>1.169332262385944e-05</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -5948,7 +5945,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1.749967747347736e-05</v>
+        <v>1.111027808283279e-05</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -5956,7 +5953,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.678874668746723e-05</v>
+        <v>1.055671548609635e-05</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -5964,7 +5961,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.610870131390548e-05</v>
+        <v>1.003112291031697e-05</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -5972,7 +5969,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.545811904277541e-05</v>
+        <v>9.532067044168844e-06</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -5980,7 +5977,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.483564649524751e-05</v>
+        <v>9.058189047781084e-06</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -5988,7 +5985,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.4239995730348e-05</v>
+        <v>8.608200632742051e-06</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -5996,7 +5993,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.366994093563117e-05</v>
+        <v>8.180880350793833e-06</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -6004,7 +6001,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.312431529183607e-05</v>
+        <v>7.775070080025446e-06</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -6012,7 +6009,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.26020080020877e-05</v>
+        <v>7.38967169795716e-06</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -6020,7 +6017,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.210196147670818e-05</v>
+        <v>7.023643931486644e-06</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -6028,7 +6025,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.162316866521688e-05</v>
+        <v>6.675999374207241e-06</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -6036,7 +6033,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.116467052755877e-05</v>
+        <v>6.345801662119035e-06</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -6044,7 +6041,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.072555363704269e-05</v>
+        <v>6.032162799239563e-06</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -6052,7 +6049,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.030494790789358e-05</v>
+        <v>5.734240625081402e-06</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -6060,7 +6057,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>9.902024440708056e-06</v>
+        <v>5.451236416386391e-06</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -6068,7 +6065,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>9.515993479484104e-06</v>
+        <v>5.182392615934041e-06</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -6076,7 +6073,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>9.146102474235122e-06</v>
+        <v>4.926990681612305e-06</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -6084,7 +6081,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8.791634243538066e-06</v>
+        <v>4.684349049316654e-06</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -6092,7 +6089,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8.451905231672232e-06</v>
+        <v>4.45382120358741e-06</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -6100,7 +6097,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>8.126263855300159e-06</v>
+        <v>4.234793850221561e-06</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -6108,7 +6105,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7.814088934921032e-06</v>
+        <v>4.026685185411181e-06</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -6116,7 +6113,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7.51478820658909e-06</v>
+        <v>3.828943256247713e-06</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -6124,7 +6121,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7.227796909633823e-06</v>
+        <v>3.641044407714959e-06</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -6132,7 +6129,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6.952576446357193e-06</v>
+        <v>3.462491811554343e-06</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -6140,7 +6137,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6.688613109898047e-06</v>
+        <v>3.292814072634384e-06</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -6148,7 +6145,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6.435416876665564e-06</v>
+        <v>3.131563908691632e-06</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -6156,7 +6153,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6.192520259938328e-06</v>
+        <v>2.978316899533162e-06</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -6164,7 +6161,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5.959477221411143e-06</v>
+        <v>2.832670302001674e-06</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -6172,7 +6169,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5.735862137645835e-06</v>
+        <v>2.694241927202157e-06</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -6180,7 +6177,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5.521268818550302e-06</v>
+        <v>2.562669076678631e-06</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -6188,7 +6185,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5.315309575160147e-06</v>
+        <v>2.437607534404923e-06</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -6196,7 +6193,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5.117614334153003e-06</v>
+        <v>2.318730611626423e-06</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -6204,7 +6201,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>4.927829796656236e-06</v>
+        <v>2.205728241744019e-06</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -6212,7 +6209,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>4.745618639044556e-06</v>
+        <v>2.098306122585697e-06</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -6220,7 +6217,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>4.570658753548716e-06</v>
+        <v>1.996184903552858e-06</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -6228,7 +6225,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>4.40264252661131e-06</v>
+        <v>1.899099415261222e-06</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -6236,7 +6233,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>4.24127615303623e-06</v>
+        <v>1.806797939427658e-06</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -6244,7 +6241,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>4.086278984086209e-06</v>
+        <v>1.719041516870999e-06</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -6252,7 +6249,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>3.937382907777814e-06</v>
+        <v>1.635603291611413e-06</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -6260,7 +6257,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3.794331759718518e-06</v>
+        <v>1.556267889159714e-06</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -6268,7 +6265,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>3.656880762918923e-06</v>
+        <v>1.480830827190884e-06</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -6276,7 +6273,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>3.524795995096135e-06</v>
+        <v>1.409097956891887e-06</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -6284,7 +6281,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>3.397853882061603e-06</v>
+        <v>1.340884933365567e-06</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -6292,7 +6289,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>3.275840715864874e-06</v>
+        <v>1.276016713559011e-06</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -6300,7 +6297,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>3.158552196431062e-06</v>
+        <v>1.214327080266355e-06</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -6308,7 +6305,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>3.045792995499272e-06</v>
+        <v>1.155658190833118e-06</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -6316,7 +6313,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>2.937376341730272e-06</v>
+        <v>1.09986014926272e-06</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -6324,7 +6321,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>2.833123625913025e-06</v>
+        <v>1.046790600495259e-06</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -6332,7 +6329,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>2.732864025254012e-06</v>
+        <v>9.963143456932848e-07</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -6340,7 +6337,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>2.636434145788101e-06</v>
+        <v>9.483029774320475e-07</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -6348,7 +6345,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>2.543677681999117e-06</v>
+        <v>9.026345337501805e-07</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -6356,7 +6353,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>2.454445092786498e-06</v>
+        <v>8.591931700721594e-07</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -6364,7 +6361,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>2.368593292958316e-06</v>
+        <v>8.178688480663082e-07</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -6372,7 +6369,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>2.28598535947562e-06</v>
+        <v>7.785570405520769e-07</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -6380,7 +6377,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>2.206490251711003e-06</v>
+        <v>7.411584516169535e-07</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -6388,7 +6385,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>2.129982545024361e-06</v>
+        <v>7.055787511485834e-07</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -6396,7 +6393,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>2.056342176993577e-06</v>
+        <v>6.717283230283468e-07</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -6404,7 +6401,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>1.985454205672992e-06</v>
+        <v>6.395220262746624e-07</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -6412,7 +6409,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>1.917208579284348e-06</v>
+        <v>6.088789684595578e-07</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -6420,7 +6417,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>1.851499916775399e-06</v>
+        <v>5.797222907598579e-07</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -6428,7 +6425,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>1.788227298711216e-06</v>
+        <v>5.519789640365352e-07</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -6436,7 +6433,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>1.727294067989342e-06</v>
+        <v>5.255795953689572e-07</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -6444,7 +6441,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>1.668607639896986e-06</v>
+        <v>5.004582445000473e-07</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -6452,7 +6449,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>1.612079321053188e-06</v>
+        <v>4.765522496776136e-07</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -6460,7 +6457,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>1.557624136800663e-06</v>
+        <v>4.53802062404399e-07</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -6468,7 +6465,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>1.505160666636306e-06</v>
+        <v>4.321510906339506e-07</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -6476,7 +6473,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>1.454610887288436e-06</v>
+        <v>4.11545549975519e-07</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -6484,7 +6481,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>1.405900023069737e-06</v>
+        <v>3.919343224922213e-07</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -6492,7 +6489,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>1.358956403152994e-06</v>
+        <v>3.732688227002598e-07</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -6500,7 +6497,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>1.313711325435142e-06</v>
+        <v>3.555028703960948e-07</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -6508,7 +6505,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>1.270098926671275e-06</v>
+        <v>3.38592569959463e-07</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -6516,7 +6513,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>1.228056058576992e-06</v>
+        <v>3.224961957971243e-07</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -6524,7 +6521,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>1.187522169612004e-06</v>
+        <v>3.07174083610966e-07</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -6532,7 +6529,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>1.148439192172613e-06</v>
+        <v>2.925885271900728e-07</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -6540,7 +6537,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>1.110751434933963e-06</v>
+        <v>2.787036804420378e-07</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -6548,7 +6545,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>1.074405480096764e-06</v>
+        <v>2.654854643939112e-07</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -6556,7 +6553,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>1.039350085303841e-06</v>
+        <v>2.529014789072174e-07</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -6564,7 +6561,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>1.005536090005105e-06</v>
+        <v>2.409209188644943e-07</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -6572,7 +6569,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>9.72916326059637e-07</v>
+        <v>2.295144945979529e-07</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -6580,7 +6577,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>9.414455323739722e-07</v>
+        <v>2.186543563423177e-07</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -6588,7 +6585,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>9.110802733863477e-07</v>
+        <v>2.083140225057381e-07</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -6596,7 +6593,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>8.817788612149319e-07</v>
+        <v>1.984683115627248e-07</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -6604,7 +6601,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>8.535012812981271e-07</v>
+        <v>1.890932773840297e-07</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -6612,7 +6609,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>8.262091213627423e-07</v>
+        <v>1.801661478274626e-07</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -6620,7 +6617,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7.998655035638706e-07</v>
+        <v>1.716652664227431e-07</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -6628,7 +6625,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7.74435019648721e-07</v>
+        <v>1.635700369926536e-07</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -6636,7 +6633,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7.498836690026092e-07</v>
+        <v>1.558608710603372e-07</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -6644,7 +6641,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7.261787994434459e-07</v>
+        <v>1.485191379006449e-07</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -6652,7 +6649,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7.032890506367895e-07</v>
+        <v>1.415271171009266e-07</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -6660,7 +6657,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6.811843000097559e-07</v>
+        <v>1.348679535031987e-07</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -6668,7 +6665,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6.59835611048684e-07</v>
+        <v>1.285256144067017e-07</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -6676,7 +6673,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6.392151838699011e-07</v>
+        <v>1.22484848915728e-07</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -6684,7 +6681,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6.192963079592074e-07</v>
+        <v>1.167311493238213e-07</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -6692,7 +6689,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6.0005331698034e-07</v>
+        <v>1.112507144308232e-07</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -6700,7 +6697,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>5.814615455573531e-07</v>
+        <v>1.060304146948063e-07</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -6708,7 +6705,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>5.634972879406269e-07</v>
+        <v>1.010577591257247e-07</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -6716,7 +6713,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>5.46137758470494e-07</v>
+        <v>9.632086383266451e-08</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -6724,7 +6721,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>5.293610537563447e-07</v>
+        <v>9.180842214084671e-08</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -6732,7 +6729,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>5.131461164934299e-07</v>
+        <v>8.750967619908962e-08</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -6740,7 +6737,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>4.974727008427492e-07</v>
+        <v>8.341439000223934e-08</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -6748,7 +6745,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>4.823213393034406e-07</v>
+        <v>7.951282375723136e-08</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -6756,7 +6753,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>4.6767331100998e-07</v>
+        <v>7.579570952485743e-08</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -6764,7 +6761,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>4.5351061139014e-07</v>
+        <v>7.225422807292252e-08</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -6772,7 +6769,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>4.398159231222134e-07</v>
+        <v>6.887998687972829e-08</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -6780,7 +6777,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>4.265725883333657e-07</v>
+        <v>6.566499922994875e-08</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -6788,7 +6785,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>4.137645819833314e-07</v>
+        <v>6.260166434790361e-08</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -6796,7 +6793,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>4.013764863804432e-07</v>
+        <v>5.968274851606532e-08</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -6804,7 +6801,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>3.893934667795141e-07</v>
+        <v>5.690136712926669e-08</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -6812,7 +6809,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>3.778012480133518e-07</v>
+        <v>5.425096763764837e-08</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -6820,7 +6817,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>3.665860921119014e-07</v>
+        <v>5.172531333370377e-08</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -6828,7 +6825,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>3.557347768653281e-07</v>
+        <v>4.931846794113206e-08</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -6836,7 +6833,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>3.45234575289125e-07</v>
+        <v>4.702478096528123e-08</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -6844,7 +6841,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>3.350732359515034e-07</v>
+        <v>4.483887376708407e-08</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -6852,7 +6849,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>3.252389641250021e-07</v>
+        <v>4.275562632423214e-08</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -6860,7 +6857,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>3.157204037261151e-07</v>
+        <v>4.077016464528992e-08</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -6868,7 +6865,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>3.065066200082569e-07</v>
+        <v>3.887784880404768e-08</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -6876,7 +6873,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>2.975870829751884e-07</v>
+        <v>3.707426156321171e-08</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -6884,7 +6881,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>2.889516514833116e-07</v>
+        <v>3.53551975579747e-08</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -6892,7 +6889,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>2.805905580028245e-07</v>
+        <v>3.371665301158817e-08</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -6900,7 +6897,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>2.724943940091099e-07</v>
+        <v>3.215481595638911e-08</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -6908,7 +6905,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>2.646540959768548e-07</v>
+        <v>3.066605693515977e-08</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -6916,7 +6913,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>2.570609319509514e-07</v>
+        <v>2.924692015888595e-08</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -6924,7 +6921,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>2.497064886690409e-07</v>
+        <v>2.789411509823327e-08</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -6932,7 +6929,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>2.425826592120838e-07</v>
+        <v>2.660450848719665e-08</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -6940,7 +6937,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>2.356816311600296e-07</v>
+        <v>2.537511671844952e-08</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -6948,7 +6945,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>2.289958752310105e-07</v>
+        <v>2.420309861096874e-08</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -6956,7 +6953,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>2.225181343832668e-07</v>
+        <v>2.308574853145912e-08</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -6964,7 +6961,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>2.162414133599951e-07</v>
+        <v>2.20204898520759e-08</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -6972,7 +6969,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>2.101589686582138e-07</v>
+        <v>2.100486872775505e-08</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -6980,7 +6977,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>2.042642989035553e-07</v>
+        <v>2.003654817738533e-08</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -6988,7 +6985,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>1.985511356137552e-07</v>
+        <v>1.911330245375055e-08</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -6996,7 +6993,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>1.930134343342777e-07</v>
+        <v>1.823301168801147e-08</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -7004,7 +7001,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>1.876453661304003e-07</v>
+        <v>1.739365679514642e-08</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -7012,7 +7009,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>1.824413094205792e-07</v>
+        <v>1.659331462748879e-08</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -7020,7 +7017,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>1.773958421368328e-07</v>
+        <v>1.583015336411972e-08</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -7028,7 +7025,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>1.725037341982337e-07</v>
+        <v>1.51024281244981e-08</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -7036,7 +7033,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>1.6775994028448e-07</v>
+        <v>1.440847679528595e-08</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -7044,7 +7041,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>1.63159592896897e-07</v>
+        <v>1.374671605986555e-08</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -7052,7 +7049,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>1.586979956948535e-07</v>
+        <v>1.311563762060767e-08</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -7060,7 +7057,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>1.543706170961153e-07</v>
+        <v>1.25138046043857e-08</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -7068,7 +7065,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>1.50173084130139e-07</v>
+        <v>1.193984814235852e-08</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -7076,7 +7073,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>1.46101176533745e-07</v>
+        <v>1.139246411546669e-08</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -7084,7 +7081,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>1.421508210791935e-07</v>
+        <v>1.087041005749887e-08</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -7092,7 +7089,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>1.383180861249524e-07</v>
+        <v>1.037250220802822e-08</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -7100,7 +7097,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>1.345991763800473e-07</v>
+        <v>9.897612707857439e-09</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -7108,7 +7105,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>1.309904278730969e-07</v>
+        <v>9.444666930010282e-09</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -7116,7 +7113,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>1.274883031176689e-07</v>
+        <v>9.012640939633733e-09</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -7124,7 +7121,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>1.240893864659123e-07</v>
+        <v>8.600559076504579e-09</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -7132,7 +7129,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>1.207903796426598e-07</v>
+        <v>8.207491654161808e-09</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -7140,7 +7137,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>1.175880974527359e-07</v>
+        <v>7.832552769960866e-09</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -7148,7 +7145,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>1.144794636543039e-07</v>
+        <v>7.474898220641686e-09</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -7156,7 +7153,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>1.114615069915743e-07</v>
+        <v>7.133723518264877e-09</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -7164,7 +7161,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>1.085313573803008e-07</v>
+        <v>6.808262001627923e-09</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -7172,7 +7169,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>1.056862422399821e-07</v>
+        <v>6.4977830385079e-09</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -7180,7 +7177,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>1.029234829667193e-07</v>
+        <v>6.201590314312094e-09</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -7188,7 +7185,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>1.002404915411321e-07</v>
+        <v>5.91902020293691e-09</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -7196,7 +7193,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>9.763476726584366e-08</v>
+        <v>5.649440215833055e-09</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -7204,7 +7201,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>9.510389362732933e-08</v>
+        <v>5.392247525485018e-09</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -7212,7 +7209,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>9.264553527715258e-08</v>
+        <v>5.146867559689267e-09</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -7220,7 +7217,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>9.025743512778393e-08</v>
+        <v>4.912752663195033e-09</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -7228,7 +7225,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>8.793741155844858e-08</v>
+        <v>4.689380823445084e-09</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -7236,7 +7233,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>8.568335572656356e-08</v>
+        <v>4.476254457309954e-09</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -7244,7 +7241,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>8.349322898062631e-08</v>
+        <v>4.272899255858836e-09</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -7252,7 +7249,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>8.136506037046552e-08</v>
+        <v>4.078863084364142e-09</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -7260,7 +7257,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7.929694425102795e-08</v>
+        <v>3.893714934863955e-09</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -7268,7 +7265,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7.728703797597682e-08</v>
+        <v>3.717043928744321e-09</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -7276,7 +7273,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7.533355967757432e-08</v>
+        <v>3.54845836692509e-09</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -7284,7 +7281,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7.343478612942577e-08</v>
+        <v>3.387584825349787e-09</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -7292,7 +7289,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7.158905068885722e-08</v>
+        <v>3.234067293596885e-09</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -7300,7 +7297,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6.979474131575603e-08</v>
+        <v>3.087566354530484e-09</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -7308,7 +7305,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6.805029866491982e-08</v>
+        <v>2.947758403013157e-09</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -7316,7 +7313,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6.635421424901683e-08</v>
+        <v>2.814334901803325e-09</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -7324,7 +7321,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6.470502866941369e-08</v>
+        <v>2.687001672841463e-09</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -7332,7 +7329,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6.310132991220784e-08</v>
+        <v>2.565478222229476e-09</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -7340,7 +7337,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6.15417517069654e-08</v>
+        <v>2.449497097278449e-09</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -7348,7 +7345,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6.00249719456962e-08</v>
+        <v>2.338803274087476e-09</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -7356,7 +7353,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>5.854971115975512e-08</v>
+        <v>2.233153574185295e-09</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -7364,7 +7361,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>5.711473105243077e-08</v>
+        <v>2.132316108842628e-09</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -7372,7 +7369,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>5.571883308506378e-08</v>
+        <v>2.036069749725514e-09</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -7380,7 +7377,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>5.436085711464792e-08</v>
+        <v>1.944203624629163e-09</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -7388,7 +7385,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>5.30396800809242e-08</v>
+        <v>1.856516637090487e-09</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -7396,7 +7393,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>5.175421474109169e-08</v>
+        <v>1.772817008734965e-09</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -7404,7 +7401,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>5.050340845028162e-08</v>
+        <v>1.692921843272345e-09</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -7412,7 +7409,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>4.928624198609129e-08</v>
+        <v>1.616656711103648e-09</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -7420,7 +7417,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>4.810172841544595e-08</v>
+        <v>1.543855253556064e-09</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -7428,7 +7425,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>4.694891200223841e-08</v>
+        <v>1.474358805807587e-09</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -7436,7 +7433,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>4.582686715414859e-08</v>
+        <v>1.408016037609162e-09</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -7444,7 +7441,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>4.473469740718865e-08</v>
+        <v>1.344682610955767e-09</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -7452,7 +7449,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>4.367153444654189e-08</v>
+        <v>1.284220853897813e-09</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -7460,7 +7457,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>4.263653716232045e-08</v>
+        <v>1.226499449723426e-09</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -7468,7 +7465,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>4.162889073893211e-08</v>
+        <v>1.171393140780726e-09</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -7476,7 +7473,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>4.064780577679737e-08</v>
+        <v>1.118782446241526e-09</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -7484,7 +7481,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>3.96925174451916e-08</v>
+        <v>1.068553393145095e-09</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -7492,7 +7489,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>3.876228466506772e-08</v>
+        <v>1.020597260088621e-09</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -7500,7 +7497,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>3.785638932071474e-08</v>
+        <v>9.748103329647353e-10</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -7508,7 +7505,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>3.697413549920315e-08</v>
+        <v>9.310936721737052e-10</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -7516,7 +7513,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>3.611484875656111e-08</v>
+        <v>8.89352890765201e-10</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -7524,7 +7521,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>3.527787540970547e-08</v>
+        <v>8.494979429910861e-10</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -7532,7 +7529,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>3.446258185316235e-08</v>
+        <v>8.11442922776163e-10</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -7540,7 +7537,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>3.366835389967645e-08</v>
+        <v>7.751058716361911e-10</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -7548,7 +7545,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>3.289459614379771e-08</v>
+        <v>7.404085955964581e-10</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -7556,7 +7553,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>3.214073134763591e-08</v>
+        <v>7.072764906835478e-10</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -7564,7 +7561,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>3.140619984794243e-08</v>
+        <v>6.756383765864319e-10</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -7572,7 +7569,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>3.069045898374354e-08</v>
+        <v>6.454263380988618e-10</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -7580,7 +7577,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>2.999298254377653e-08</v>
+        <v>6.1657557397639e-10</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -7588,7 +7585,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>2.931326023300264e-08</v>
+        <v>5.890242528574078e-10</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -7596,7 +7593,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>2.865079715750031e-08</v>
+        <v>5.627133759147839e-10</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -7604,7 +7601,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>2.800511332706752e-08</v>
+        <v>5.375866459200061e-10</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -7612,7 +7609,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>2.73757431748975e-08</v>
+        <v>5.135903424183947e-10</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -7620,7 +7617,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>2.676223509369806e-08</v>
+        <v>4.90673202726288e-10</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -7628,7 +7625,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>2.616415098767324e-08</v>
+        <v>4.687863084764729e-10</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -7636,7 +7633,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>2.558106583977681e-08</v>
+        <v>4.478829774506682e-10</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -7644,7 +7641,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>2.501256729370279e-08</v>
+        <v>4.279186604496853e-10</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -7652,7 +7649,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>2.44582552500764e-08</v>
+        <v>4.088508429649324e-10</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -7660,7 +7657,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>2.3917741476334e-08</v>
+        <v>3.906389514252209e-10</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -7668,7 +7665,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>2.339064922980462e-08</v>
+        <v>3.732442638036392e-10</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -7676,7 +7673,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>2.287661289351772e-08</v>
+        <v>3.566298243803083e-10</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -7684,7 +7681,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>2.237527762428878e-08</v>
+        <v>3.407603624653214e-10</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -7692,7 +7689,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>2.188629901263436e-08</v>
+        <v>3.256022148965019e-10</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -7700,7 +7697,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>2.140934275411218e-08</v>
+        <v>3.111232521346051e-10</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -7708,7 +7705,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>2.094408433166143e-08</v>
+        <v>2.972928077877053e-10</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -7716,7 +7713,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>2.049020870857132e-08</v>
+        <v>2.840816114037987e-10</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -7724,7 +7721,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>2.004741003169223e-08</v>
+        <v>2.7146172437879e-10</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -7732,7 +7729,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>1.961539134452573e-08</v>
+        <v>2.594064788339302e-10</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -7740,7 +7737,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>1.919386430985776e-08</v>
+        <v>2.478904193238818e-10</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -7748,7 +7745,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>1.878254894158498e-08</v>
+        <v>2.368892472431631e-10</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -7756,7 +7753,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>1.838117334542293e-08</v>
+        <v>2.263797678045009e-10</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -7764,7 +7761,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>1.798947346817757e-08</v>
+        <v>2.163398394694993e-10</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -7772,7 +7769,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>1.760719285528732e-08</v>
+        <v>2.067483257166473e-10</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -7780,7 +7777,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>1.723408241634088e-08</v>
+        <v>1.975850490378967e-10</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -7788,7 +7785,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>1.686990019829525e-08</v>
+        <v>1.888307470597962e-10</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -7796,7 +7793,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>1.651441116613157e-08</v>
+        <v>1.80467030690053e-10</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -7804,7 +7801,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>1.616738699068154e-08</v>
+        <v>1.724763441952922e-10</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -7812,7 +7809,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>1.58286058433842e-08</v>
+        <v>1.64841927119949e-10</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -7820,7 +7817,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>1.54978521977297e-08</v>
+        <v>1.575477779607e-10</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -7828,7 +7825,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>1.517491663715779e-08</v>
+        <v>1.50578619514617e-10</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -7836,7 +7833,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>1.485959566919448e-08</v>
+        <v>1.439198658233844e-10</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -7844,7 +7841,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>1.455169154561043e-08</v>
+        <v>1.375575906392052e-10</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -7852,7 +7849,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>1.425101208838771e-08</v>
+        <v>1.314784973418432e-10</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -7860,7 +7857,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>1.39573705213073e-08</v>
+        <v>1.25669890239324e-10</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -7868,7 +7865,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>1.367058530695848e-08</v>
+        <v>1.201196471881077e-10</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -7876,7 +7873,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>1.339047998898647e-08</v>
+        <v>1.148161934715155e-10</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -7884,7 +7881,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>1.311688303940001e-08</v>
+        <v>1.097484768780454e-10</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -7892,7 +7889,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>1.28496277107681e-08</v>
+        <v>1.049059439239776e-10</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -7900,7 +7897,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>1.258855189313958e-08</v>
+        <v>1.002785171672202e-10</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -7908,7 +7905,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>1.233349797552457e-08</v>
+        <v>9.585657356192553e-11</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -7916,7 +7913,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>1.208431271178563e-08</v>
+        <v>9.163092380563231e-11</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -7924,7 +7921,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>1.184084709078892e-08</v>
+        <v>8.759279263304708e-11</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -7932,7 +7929,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>1.160295621067215e-08</v>
+        <v>8.373380001271448e-11</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -7940,7 +7937,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>1.137049915709087e-08</v>
+        <v>8.004594320476379e-11</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -7948,7 +7945,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>1.114333888530977e-08</v>
+        <v>7.652157964002822e-11</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -7956,7 +7953,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>1.092134210601144e-08</v>
+        <v>7.315341058258411e-11</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -7964,7 +7961,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>1.070437917469722e-08</v>
+        <v>6.99344655394746e-11</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -7972,7 +7969,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>1.049232398455995e-08</v>
+        <v>6.685808738328482e-11</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -7980,7 +7977,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>1.028505386271512e-08</v>
+        <v>6.391791815453909e-11</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -7988,7 +7985,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>1.008244946967696e-08</v>
+        <v>6.110788551268786e-11</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -7996,7 +7993,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>9.884394701972455e-09</v>
+        <v>5.84221898057504e-11</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -8004,7 +8001,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>9.690776597790408e-09</v>
+        <v>5.585529173013904e-11</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -8012,7 +8009,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>9.501485245564408e-09</v>
+        <v>5.340190055348065e-11</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -8020,7 +8017,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>9.316413695392743e-09</v>
+        <v>5.105696287452709e-11</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -8028,7 +8025,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>9.135457873202123e-09</v>
+        <v>4.88156518954649e-11</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -8036,7 +8033,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>8.958516497566045e-09</v>
+        <v>4.667335718306349e-11</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -8044,7 +8041,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>8.785490999090897e-09</v>
+        <v>4.462567489616873e-11</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -8052,7 +8049,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>8.616285442282302e-09</v>
+        <v>4.266839845816702e-11</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -8060,7 +8057,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>8.45080644981567e-09</v>
+        <v>4.079750965393598e-11</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -8068,7 +8065,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>8.288963129130974e-09</v>
+        <v>3.900917013184332e-11</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -8076,7 +8073,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>8.130667001271429e-09</v>
+        <v>3.729971329218568e-11</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -8084,7 +8081,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>7.975831931903002e-09</v>
+        <v>3.566563654435334e-11</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -8092,7 +8089,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>7.824374064432702e-09</v>
+        <v>3.41035939158164e-11</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -8100,7 +8097,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>7.676211755168402e-09</v>
+        <v>3.261038899682108e-11</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -8108,7 +8105,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>7.531265510444513e-09</v>
+        <v>3.118296820540746e-11</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -8116,7 +8113,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7.389457925658786e-09</v>
+        <v>2.981841435809687e-11</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -8124,7 +8121,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>7.250713626152492e-09</v>
+        <v>2.851394053225325e-11</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -8132,7 +8129,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>7.11495920987763e-09</v>
+        <v>2.726688420677513e-11</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -8140,7 +8137,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>6.982123191793608e-09</v>
+        <v>2.607470166840666e-11</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -8148,7 +8145,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>6.852135949937742e-09</v>
+        <v>2.493496267150744e-11</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -8156,7 +8153,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>6.724929673115324e-09</v>
+        <v>2.384534533971896e-11</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -8164,7 +8161,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>6.600438310160248e-09</v>
+        <v>2.280363129846983e-11</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -8172,7 +8169,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>6.478597520712222e-09</v>
+        <v>2.180770102779302e-11</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -8180,7 +8177,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>6.359344627466306e-09</v>
+        <v>2.085552942539119e-11</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -8188,7 +8185,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>6.242618569845601e-09</v>
+        <v>1.99451815703733e-11</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -8196,7 +8193,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>6.128359859052903e-09</v>
+        <v>1.907480867849799e-11</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -8204,7 +8201,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>6.016510534457519e-09</v>
+        <v>1.82426442402202e-11</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -8212,7 +8209,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>5.907014121275357e-09</v>
+        <v>1.744700033318491e-11</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -8220,7 +8217,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>5.799815589502594e-09</v>
+        <v>1.668626410124425e-11</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -8228,7 +8225,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>5.694861314060037e-09</v>
+        <v>1.595889439241736e-11</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -8236,7 +8233,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>5.592099036115228e-09</v>
+        <v>1.526341854854746e-11</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -8244,7 +8241,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>5.491477825541103e-09</v>
+        <v>1.459842933977652e-11</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -8252,7 +8249,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>5.392948044478166e-09</v>
+        <v>1.396258203723309e-11</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -8260,7 +8257,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>5.296461311964784e-09</v>
+        <v>1.335459161767172e-11</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -8268,7 +8265,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>5.201970469602635e-09</v>
+        <v>1.277323009405371e-11</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -8276,7 +8273,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>5.109429548224649e-09</v>
+        <v>1.221732396636298e-11</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -8284,7 +8281,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>5.018793735535759e-09</v>
+        <v>1.168575178718792e-11</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -8292,7 +8289,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>4.930019344694189e-09</v>
+        <v>1.117744183687397e-11</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -8300,7 +8297,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>4.843063783805806e-09</v>
+        <v>1.069136990326964e-11</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -8308,7 +8305,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>4.757885526303529e-09</v>
+        <v>1.022655716131985e-11</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -8316,7 +8313,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>4.674444082182805e-09</v>
+        <v>9.782068147996611e-12</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -8324,7 +8321,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>4.592699970068161e-09</v>
+        <v>9.357008828230916e-12</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -8332,7 +8329,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>4.512614690086407e-09</v>
+        <v>8.950524747737472e-12</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -8340,7 +8337,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>4.434150697518627e-09</v>
+        <v>8.56179926879114e-12</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -8348,7 +8345,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>4.357271377210057e-09</v>
+        <v>8.190051885204223e-12</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -8356,7 +8353,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>4.281941018713803e-09</v>
+        <v>7.834536612925295e-12</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -8364,7 +8361,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>4.208124792144704e-09</v>
+        <v>7.494540452831737e-12</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -8372,7 +8369,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>4.135788724724895e-09</v>
+        <v>7.1693819224633e-12</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -8380,7 +8377,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>4.064899677995589e-09</v>
+        <v>6.858409653574289e-12</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -8388,7 +8385,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>3.995425325680063e-09</v>
+        <v>6.561001052532937e-12</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -8396,7 +8393,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>3.927334132173216e-09</v>
+        <v>6.276561020735031e-12</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -8404,7 +8401,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>3.860595331642285e-09</v>
+        <v>6.004520732315893e-12</v>
       </c>
     </row>
   </sheetData>
